--- a/evaluation/seet.evaluation.scalability/evaluation.xlsx
+++ b/evaluation/seet.evaluation.scalability/evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/jss revised/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562C7703-E325-3247-8941-33A849D2E0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63293D04-B402-0F49-AA85-9365C00487B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{8DC81972-DE2F-E848-956B-10CB0B533ECA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>execution1</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Case study</t>
+  </si>
+  <si>
+    <t>Market2View</t>
+  </si>
+  <si>
+    <t>Newsletter2HTML</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AE7CFB-C6C0-284A-905F-3893D347117B}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,6 +935,136 @@
         <v>15625</v>
       </c>
     </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>67250</v>
+      </c>
+      <c r="C9">
+        <v>69484</v>
+      </c>
+      <c r="D9">
+        <v>72265</v>
+      </c>
+      <c r="E9">
+        <v>73281</v>
+      </c>
+      <c r="F9">
+        <v>70406</v>
+      </c>
+      <c r="G9">
+        <v>69484</v>
+      </c>
+      <c r="H9">
+        <v>69781</v>
+      </c>
+      <c r="I9">
+        <v>81437</v>
+      </c>
+      <c r="J9">
+        <v>68656</v>
+      </c>
+      <c r="K9">
+        <v>82437</v>
+      </c>
+      <c r="L9">
+        <v>74125</v>
+      </c>
+      <c r="M9">
+        <v>74328</v>
+      </c>
+      <c r="N9">
+        <v>77218</v>
+      </c>
+      <c r="O9">
+        <v>77921</v>
+      </c>
+      <c r="P9">
+        <v>75296</v>
+      </c>
+      <c r="Q9">
+        <v>74437</v>
+      </c>
+      <c r="R9">
+        <v>74812</v>
+      </c>
+      <c r="S9">
+        <v>86171</v>
+      </c>
+      <c r="T9">
+        <v>73609</v>
+      </c>
+      <c r="U9">
+        <v>87265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>139109</v>
+      </c>
+      <c r="C10">
+        <v>141890</v>
+      </c>
+      <c r="D10">
+        <v>140312</v>
+      </c>
+      <c r="E10">
+        <v>136375</v>
+      </c>
+      <c r="F10">
+        <v>142296</v>
+      </c>
+      <c r="G10">
+        <v>138156</v>
+      </c>
+      <c r="H10">
+        <v>137015</v>
+      </c>
+      <c r="I10">
+        <v>139156</v>
+      </c>
+      <c r="J10">
+        <v>170140</v>
+      </c>
+      <c r="K10">
+        <v>142703</v>
+      </c>
+      <c r="L10">
+        <v>140062</v>
+      </c>
+      <c r="M10">
+        <v>142843</v>
+      </c>
+      <c r="N10">
+        <v>141171</v>
+      </c>
+      <c r="O10">
+        <v>137359</v>
+      </c>
+      <c r="P10">
+        <v>143312</v>
+      </c>
+      <c r="Q10">
+        <v>139062</v>
+      </c>
+      <c r="R10">
+        <v>137906</v>
+      </c>
+      <c r="S10">
+        <v>140000</v>
+      </c>
+      <c r="T10">
+        <v>171187</v>
+      </c>
+      <c r="U10">
+        <v>143625</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:K1"/>
